--- a/biology/Botanique/Atuna_penangiana/Atuna_penangiana.xlsx
+++ b/biology/Botanique/Atuna_penangiana/Atuna_penangiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atuna penangiana est une espèce de plantes à fleurs la famille des Chrysobalanaceae. C'est un arbre originaire de la Péninsule Malaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclandrophora penangiana Kosterm. &amp; Prance.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre atteignant 20 mètres de haut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre atteignant 20 mètres de haut.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre endémique de la Péninsule Malaise, localisé dans les forêts primaires de basse altitude (surtout les collines), sur des sols bien drainés jusqu'à 600 mètres d'altitude. Sa conservation est liée au risque de déforestation.
 </t>
